--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H2">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I2">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J2">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.243779</v>
+        <v>21.19112166666667</v>
       </c>
       <c r="N2">
-        <v>48.731337</v>
+        <v>63.573365</v>
       </c>
       <c r="O2">
-        <v>0.4875086269552681</v>
+        <v>0.4896103362399876</v>
       </c>
       <c r="P2">
-        <v>0.4875086269552682</v>
+        <v>0.4896103362399877</v>
       </c>
       <c r="Q2">
-        <v>5.599046525137999</v>
+        <v>6.42278174741389</v>
       </c>
       <c r="R2">
-        <v>50.39141872624199</v>
+        <v>57.805035726725</v>
       </c>
       <c r="S2">
-        <v>0.3836946736120159</v>
+        <v>0.2864499020564659</v>
       </c>
       <c r="T2">
-        <v>0.383694673612016</v>
+        <v>0.2864499020564659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H3">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I3">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J3">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.387227</v>
       </c>
       <c r="O3">
-        <v>0.4040340937352228</v>
+        <v>0.3110422704739745</v>
       </c>
       <c r="P3">
-        <v>0.4040340937352229</v>
+        <v>0.3110422704739746</v>
       </c>
       <c r="Q3">
-        <v>4.640339808331333</v>
+        <v>4.080299106461666</v>
       </c>
       <c r="R3">
-        <v>41.76305827498199</v>
+        <v>36.722691958155</v>
       </c>
       <c r="S3">
-        <v>0.3179958695132743</v>
+        <v>0.1819774243267169</v>
       </c>
       <c r="T3">
-        <v>0.3179958695132744</v>
+        <v>0.1819774243267169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H4">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I4">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J4">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.587349</v>
+        <v>8.601420333333333</v>
       </c>
       <c r="N4">
-        <v>10.762047</v>
+        <v>25.804261</v>
       </c>
       <c r="O4">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="P4">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="Q4">
-        <v>1.236518543678</v>
+        <v>2.606990153129445</v>
       </c>
       <c r="R4">
-        <v>11.128666893102</v>
+        <v>23.462911378165</v>
       </c>
       <c r="S4">
-        <v>0.08473685240899864</v>
+        <v>0.116269258927689</v>
       </c>
       <c r="T4">
-        <v>0.08473685240899866</v>
+        <v>0.116269258927689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H5">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I5">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J5">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02644566666666667</v>
+        <v>0.026655</v>
       </c>
       <c r="N5">
-        <v>0.079337</v>
+        <v>0.07996499999999999</v>
       </c>
       <c r="O5">
-        <v>0.0007936878878728509</v>
+        <v>0.0006158505301305131</v>
       </c>
       <c r="P5">
-        <v>0.000793687887872851</v>
+        <v>0.0006158505301305133</v>
       </c>
       <c r="Q5">
-        <v>0.009115521582444445</v>
+        <v>0.008078819524999999</v>
       </c>
       <c r="R5">
-        <v>0.082039694242</v>
+        <v>0.072709375725</v>
       </c>
       <c r="S5">
-        <v>0.0006246736944721322</v>
+        <v>0.0003603075976542267</v>
       </c>
       <c r="T5">
-        <v>0.0006246736944721323</v>
+        <v>0.0003603075976542267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H6">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I6">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J6">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.243779</v>
+        <v>21.19112166666667</v>
       </c>
       <c r="N6">
-        <v>48.731337</v>
+        <v>63.573365</v>
       </c>
       <c r="O6">
-        <v>0.4875086269552681</v>
+        <v>0.4896103362399876</v>
       </c>
       <c r="P6">
-        <v>0.4875086269552682</v>
+        <v>0.4896103362399877</v>
       </c>
       <c r="Q6">
-        <v>1.514900244133</v>
+        <v>4.555264704588333</v>
       </c>
       <c r="R6">
-        <v>13.634102197197</v>
+        <v>40.997382341295</v>
       </c>
       <c r="S6">
-        <v>0.1038139533432522</v>
+        <v>0.2031604341835217</v>
       </c>
       <c r="T6">
-        <v>0.1038139533432522</v>
+        <v>0.2031604341835218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H7">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I7">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J7">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>40.387227</v>
       </c>
       <c r="O7">
-        <v>0.4040340937352228</v>
+        <v>0.3110422704739745</v>
       </c>
       <c r="P7">
-        <v>0.4040340937352229</v>
+        <v>0.3110422704739746</v>
       </c>
       <c r="Q7">
-        <v>1.255508750809667</v>
+        <v>2.893892901049</v>
       </c>
       <c r="R7">
-        <v>11.299578757287</v>
+        <v>26.045036109441</v>
       </c>
       <c r="S7">
-        <v>0.0860382242219485</v>
+        <v>0.1290648461472576</v>
       </c>
       <c r="T7">
-        <v>0.08603822422194851</v>
+        <v>0.1290648461472576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H8">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I8">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J8">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.587349</v>
+        <v>8.601420333333333</v>
       </c>
       <c r="N8">
-        <v>10.762047</v>
+        <v>25.804261</v>
       </c>
       <c r="O8">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="P8">
-        <v>0.1076635914216362</v>
+        <v>0.1987315427559073</v>
       </c>
       <c r="Q8">
-        <v>0.334557363523</v>
+        <v>1.848969916273667</v>
       </c>
       <c r="R8">
-        <v>3.011016271707</v>
+        <v>16.640729246463</v>
       </c>
       <c r="S8">
-        <v>0.02292673901263754</v>
+        <v>0.08246228382821824</v>
       </c>
       <c r="T8">
-        <v>0.02292673901263754</v>
+        <v>0.08246228382821827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H9">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I9">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J9">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02644566666666667</v>
+        <v>0.026655</v>
       </c>
       <c r="N9">
-        <v>0.079337</v>
+        <v>0.07996499999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007936878878728509</v>
+        <v>0.0006158505301305131</v>
       </c>
       <c r="P9">
-        <v>0.000793687887872851</v>
+        <v>0.0006158505301305133</v>
       </c>
       <c r="Q9">
-        <v>0.002466331688555556</v>
+        <v>0.005729785454999999</v>
       </c>
       <c r="R9">
-        <v>0.022196985197</v>
+        <v>0.051568069095</v>
       </c>
       <c r="S9">
-        <v>0.0001690141934007187</v>
+        <v>0.0002555429324762864</v>
       </c>
       <c r="T9">
-        <v>0.0001690141934007188</v>
+        <v>0.0002555429324762865</v>
       </c>
     </row>
   </sheetData>
